--- a/PUBG_predict_model.xlsx
+++ b/PUBG_predict_model.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>라쏘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,12 +54,56 @@
     <t>딥러닝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>R-squared (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0F0F0F"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>):0.963185698883865</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +132,29 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0F0F0F"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -111,7 +178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -120,6 +187,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -255,7 +334,7 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -270,13 +349,11 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:alpha val="88000"/>
-              </a:schemeClr>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent4">
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -288,7 +365,7 @@
             </a:scene3d>
             <a:sp3d prstMaterial="flat">
               <a:contourClr>
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent4">
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:contourClr>
@@ -298,15 +375,13 @@
           <c:dLbls>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
+                  <a:sysClr val="window" lastClr="FFFFFF">
                     <a:alpha val="50000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -327,7 +402,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -376,10 +451,10 @@
                   <c:v>릿지</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>그라디언트</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>랜덤 포레스트</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>그라디언트</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>딥러닝</c:v>
@@ -394,31 +469,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.8137864593349001E-2</c:v>
+                  <c:v>6.7376780053998095E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7392919696563802E-2</c:v>
+                  <c:v>6.7384770059817495E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2827041130037297E-2</c:v>
+                  <c:v>5.13737176230235E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0517831495129199E-2</c:v>
+                  <c:v>4.4107612991988801E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2028967291116701E-2</c:v>
+                  <c:v>4.2250853031873703E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EFED-4BD4-A20A-F107D51908ED}"/>
+              <c16:uniqueId val="{00000009-D30E-4358-8AA1-B978C417D1BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -433,13 +508,11 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:alpha val="88000"/>
-              </a:schemeClr>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -451,7 +524,7 @@
             </a:scene3d>
             <a:sp3d prstMaterial="flat">
               <a:contourClr>
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent5">
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:contourClr>
@@ -461,15 +534,13 @@
           <c:dLbls>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
+                  <a:sysClr val="window" lastClr="FFFFFF">
                     <a:alpha val="50000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -490,7 +561,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -539,10 +610,10 @@
                   <c:v>릿지</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>그라디언트</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>랜덤 포레스트</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>그라디언트</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>딥러닝</c:v>
@@ -557,31 +628,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.5873793418275602E-3</c:v>
+                  <c:v>8.4524452816212396E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4534662647966392E-3</c:v>
+                  <c:v>8.4528943126207998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.72398722985749E-3</c:v>
+                  <c:v>5.4663556994656798E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1904464747962401E-3</c:v>
+                  <c:v>3.7576788228641102E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2624632585793699E-3</c:v>
+                  <c:v>3.57061368413269E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EFED-4BD4-A20A-F107D51908ED}"/>
+              <c16:uniqueId val="{0000000A-D30E-4358-8AA1-B978C417D1BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="5"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -596,13 +667,11 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent6">
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -614,7 +683,7 @@
             </a:scene3d>
             <a:sp3d prstMaterial="flat">
               <a:contourClr>
-                <a:schemeClr val="accent3">
+                <a:schemeClr val="accent6">
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:contourClr>
@@ -624,15 +693,13 @@
           <c:dLbls>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:alpha val="30000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
+                  <a:sysClr val="window" lastClr="FFFFFF">
                     <a:alpha val="50000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -653,7 +720,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -702,10 +769,10 @@
                   <c:v>릿지</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>그라디언트</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>랜덤 포레스트</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>그라디언트</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>딥러닝</c:v>
@@ -720,16 +787,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.902034339923939</c:v>
+                  <c:v>0.90357368082745204</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90356203335192797</c:v>
+                  <c:v>0.90356855823806603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95751639090743002</c:v>
+                  <c:v>0.93763928167231503</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96360307581634796</c:v>
+                  <c:v>0.95713203393232504</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.96318569888386496</c:v>
@@ -739,7 +806,492 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EFED-4BD4-A20A-F107D51908ED}"/>
+              <c16:uniqueId val="{0000000B-D30E-4358-8AA1-B978C417D1BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>평균 절대 오차 (MAE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="88000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="flat">
+              <a:contourClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>라쏘</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>릿지</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>그라디언트</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>랜덤 포레스트</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>딥러닝</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.7376780053998095E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7384770059817495E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.13737176230235E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4107612991988801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2250853031873703E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D30E-4358-8AA1-B978C417D1BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>평균 제곱 오차 (MSE)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="88000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="flat">
+              <a:contourClr>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="99000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>라쏘</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>릿지</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>그라디언트</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>랜덤 포레스트</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>딥러닝</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.4524452816212396E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4528943126207998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4663556994656798E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7576788228641102E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.57061368413269E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D30E-4358-8AA1-B978C417D1BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R-squared (결정 계수)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="flat">
+              <a:contourClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:contourClr>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" dist="88900" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>라쏘</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>릿지</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>그라디언트</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>랜덤 포레스트</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>딥러닝</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.90357368082745204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90356855823806603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93763928167231503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95713203393232504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96318569888386496</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D30E-4358-8AA1-B978C417D1BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -823,14 +1375,11 @@
         <c:showOutline val="1"/>
         <c:showKeys val="1"/>
         <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -840,11 +1389,12 @@
           <a:p>
             <a:pPr rtl="0">
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+                    <a:schemeClr val="tx1"/>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -899,10 +1449,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx1"/>
     </a:solidFill>
     <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1525,17 +2072,17 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>68581</xdr:rowOff>
+      <xdr:rowOff>218290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>435429</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>65314</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>475129</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="차트 4"/>
+        <xdr:cNvPr id="2" name="차트 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1816,19 +2363,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="14.8984375" customWidth="1"/>
     <col min="3" max="4" width="16.296875" customWidth="1"/>
+    <col min="19" max="19" width="28.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>4</v>
@@ -1839,81 +2387,79 @@
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="S1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>6.8137864593349001E-2</v>
+      <c r="B2" s="6">
+        <v>6.7376780053998095E-2</v>
       </c>
-      <c r="C2" s="2">
-        <v>8.5873793418275602E-3</v>
+      <c r="C2" s="6">
+        <v>8.4524452816212396E-3</v>
       </c>
-      <c r="D2" s="2">
-        <v>0.902034339923939</v>
+      <c r="D2" s="6">
+        <v>0.90357368082745204</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>6.7392919696563802E-2</v>
+      <c r="B3" s="6">
+        <v>6.7384770059817495E-2</v>
       </c>
-      <c r="C3" s="2">
-        <v>8.4534662647966392E-3</v>
+      <c r="C3" s="6">
+        <v>8.4528943126207998E-3</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.90356203335192797</v>
+      <c r="D3" s="6">
+        <v>0.90356855823806603</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>5.13737176230235E-2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5.4663556994656798E-3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.93763928167231503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>4.2827041130037297E-2</v>
+      <c r="B5" s="3">
+        <v>4.4107612991988801E-2</v>
       </c>
-      <c r="C4" s="2">
-        <v>3.72398722985749E-3</v>
+      <c r="C5" s="3">
+        <v>3.7576788228641102E-3</v>
       </c>
-      <c r="D4" s="2">
-        <v>0.95751639090743002</v>
+      <c r="D5" s="6">
+        <v>0.95713203393232504</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4.0517831495129199E-2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3.1904464747962401E-3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.96360307581634796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>4.2028967291116701E-2</v>
+      <c r="B6" s="4">
+        <v>4.2250853031873703E-2</v>
       </c>
-      <c r="C6">
-        <v>3.2624632585793699E-3</v>
+      <c r="C6" s="4">
+        <v>3.57061368413269E-3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>0.96318569888386496</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
